--- a/variables_list_satisfaction.xlsx
+++ b/variables_list_satisfaction.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="1266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="1265">
   <si>
     <t>variables</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2891,10 +2891,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a17a | a17d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a27z01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4537,10 +4533,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a11b01:a11b08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c04b02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4557,10 +4549,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a11z01:a11z08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c01a=1,6(0) , c01a=2,3,4,5(1) else(.) | c01b</t>
   </si>
   <si>
@@ -4696,6 +4684,14 @@
   </si>
   <si>
     <t>C1care_m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a17a | a17d | a17b | a17e </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a17a | a17d | a17b | a17e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5123,10 +5119,10 @@
   <dimension ref="A1:Y139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="V14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V132" sqref="V132"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5144,8 +5140,8 @@
     <col min="15" max="15" width="10.28515625" customWidth="1"/>
     <col min="16" max="16" width="11.28515625" customWidth="1"/>
     <col min="17" max="18" width="9.7109375" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" customWidth="1"/>
     <col min="21" max="21" width="19.5703125" customWidth="1"/>
     <col min="22" max="22" width="19.28515625" customWidth="1"/>
     <col min="23" max="23" width="19.7109375" customWidth="1"/>
@@ -5194,7 +5190,7 @@
         <v>411</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>591</v>
@@ -5221,15 +5217,15 @@
         <v>760</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -5271,7 +5267,7 @@
         <v>216</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>592</v>
@@ -5301,12 +5297,12 @@
         <v>592</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -5345,7 +5341,7 @@
         <v>217</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>593</v>
@@ -5377,7 +5373,7 @@
     </row>
     <row r="4" spans="1:25" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -5419,7 +5415,7 @@
         <v>218</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>594</v>
@@ -5449,12 +5445,12 @@
         <v>594</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>49</v>
@@ -5496,7 +5492,7 @@
         <v>50</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>595</v>
@@ -5531,7 +5527,7 @@
     </row>
     <row r="6" spans="1:25" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>51</v>
@@ -5573,7 +5569,7 @@
         <v>219</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>596</v>
@@ -5605,7 +5601,7 @@
     </row>
     <row r="7" spans="1:25" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>52</v>
@@ -5647,7 +5643,7 @@
         <v>-999</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>597</v>
@@ -5677,12 +5673,12 @@
         <v>597</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="8" spans="1:25" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>53</v>
@@ -5724,7 +5720,7 @@
         <v>-999</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>412</v>
@@ -5754,89 +5750,89 @@
         <v>659</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="9" spans="1:25" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>1086</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>1087</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>1088</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="10" spans="1:25" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>352</v>
@@ -5873,18 +5869,18 @@
         <v>598</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="11" spans="1:25" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -5904,12 +5900,12 @@
         <v>220</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="12" spans="1:25" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>353</v>
@@ -5946,15 +5942,15 @@
         <v>600</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="13" spans="1:25" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>5</v>
@@ -5996,7 +5992,7 @@
         <v>412</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>603</v>
@@ -6026,12 +6022,12 @@
         <v>602</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="14" spans="1:25" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>654</v>
@@ -6072,12 +6068,12 @@
         <v>762</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>655</v>
@@ -6115,18 +6111,18 @@
         <v>626</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -6135,32 +6131,32 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="W16" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="17" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="X17" s="5" t="s">
         <v>885</v>
       </c>
-      <c r="X17" s="5" t="s">
-        <v>886</v>
-      </c>
       <c r="Y17" s="5" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="18" spans="1:25" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>6</v>
@@ -6229,15 +6225,15 @@
         <v>672</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="19" spans="1:25" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>556</v>
@@ -6309,12 +6305,12 @@
         <v>-999</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="20" spans="1:25" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>557</v>
@@ -6383,15 +6379,15 @@
         <v>-999</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -6415,25 +6411,25 @@
         <v>459</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="K21" t="s">
         <v>489</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>451</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>604</v>
@@ -6460,18 +6456,18 @@
         <v>761</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -6480,49 +6476,44 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="J22" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="Q22" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="R22" t="s">
         <v>1247</v>
       </c>
-      <c r="R22" t="s">
-        <v>1250</v>
-      </c>
       <c r="S22" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="T22" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="U22" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="V22" s="2"/>
-      <c r="W22" t="s">
-        <v>1224</v>
-      </c>
-      <c r="X22" s="8" t="s">
-        <v>1229</v>
-      </c>
+      <c r="X22" s="8"/>
     </row>
     <row r="23" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>54</v>
@@ -6546,7 +6537,7 @@
         <v>460</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>490</v>
@@ -6555,7 +6546,7 @@
         <v>490</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>490</v>
@@ -6564,7 +6555,7 @@
         <v>413</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>607</v>
@@ -6596,7 +6587,7 @@
     </row>
     <row r="24" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>55</v>
@@ -6620,7 +6611,7 @@
         <v>461</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>491</v>
@@ -6629,7 +6620,7 @@
         <v>491</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>491</v>
@@ -6638,7 +6629,7 @@
         <v>414</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>608</v>
@@ -6670,7 +6661,7 @@
     </row>
     <row r="25" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>8</v>
@@ -6694,7 +6685,7 @@
         <v>462</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>492</v>
@@ -6703,7 +6694,7 @@
         <v>492</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>492</v>
@@ -6712,7 +6703,7 @@
         <v>415</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>605</v>
@@ -6739,15 +6730,15 @@
         <v>763</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>9</v>
@@ -6771,7 +6762,7 @@
         <v>453</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="J26">
         <v>-999</v>
@@ -6780,7 +6771,7 @@
         <v>508</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>508</v>
@@ -6789,7 +6780,7 @@
         <v>416</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>606</v>
@@ -6819,12 +6810,12 @@
         <v>605</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>10</v>
@@ -6836,7 +6827,7 @@
         <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>230</v>
@@ -6848,7 +6839,7 @@
         <v>463</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="J27">
         <v>-999</v>
@@ -6857,7 +6848,7 @@
         <v>509</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>509</v>
@@ -6866,7 +6857,7 @@
         <v>417</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>609</v>
@@ -6896,12 +6887,12 @@
         <v>766</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>56</v>
@@ -6934,7 +6925,7 @@
         <v>458</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>458</v>
@@ -6943,7 +6934,7 @@
         <v>418</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>610</v>
@@ -6973,12 +6964,12 @@
         <v>611</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>57</v>
@@ -7011,16 +7002,16 @@
         <v>510</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>510</v>
       </c>
       <c r="N29" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>611</v>
@@ -7050,15 +7041,15 @@
         <v>607</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -7070,51 +7061,51 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>58</v>
@@ -7156,24 +7147,24 @@
         <v>661</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="W31" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="X31" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>236</v>
@@ -7191,10 +7182,10 @@
         <v>361</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="J32">
         <v>-999</v>
@@ -7239,15 +7230,15 @@
         <v>-999</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>59</v>
@@ -7316,12 +7307,12 @@
         <v>-999</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>60</v>
@@ -7390,12 +7381,12 @@
         <v>-999</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>11</v>
@@ -7464,15 +7455,15 @@
         <v>-999</v>
       </c>
       <c r="X35" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>61</v>
@@ -7541,15 +7532,15 @@
         <v>-999</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="Y36" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>62</v>
@@ -7561,12 +7552,13 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="X37" s="3" t="s">
-        <v>878</v>
-      </c>
+        <v>877</v>
+      </c>
+      <c r="Y37" s="3"/>
     </row>
     <row r="38" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>63</v>
@@ -7578,12 +7570,13 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="X38" s="3" t="s">
-        <v>879</v>
-      </c>
+        <v>878</v>
+      </c>
+      <c r="Y38" s="3"/>
     </row>
     <row r="39" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>12</v>
@@ -7595,15 +7588,15 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="X39" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="Y39" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>64</v>
@@ -7615,15 +7608,15 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="X40" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="Y40" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>94</v>
@@ -7635,15 +7628,15 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="X41" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="Y41" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>13</v>
@@ -7658,13 +7651,13 @@
         <v>522</v>
       </c>
       <c r="M42" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="N42" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="O42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="P42" t="s">
         <v>522</v>
@@ -7691,92 +7684,92 @@
         <v>359</v>
       </c>
       <c r="X42" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="Y42" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>1194</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="C43" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="J43" t="s">
         <v>1195</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>1214</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>1214</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>1214</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="J43" t="s">
-        <v>1196</v>
-      </c>
       <c r="K43" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="L43">
         <v>-999</v>
       </c>
       <c r="M43" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="N43" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="O43" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="P43" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="Q43" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="R43" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="S43" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="T43" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="U43" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="V43" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="W43" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="Y43" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>14</v>
@@ -7809,16 +7802,16 @@
         <v>511</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>526</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>612</v>
@@ -7842,18 +7835,18 @@
         <v>699</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>769</v>
+        <v>1263</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>769</v>
+        <v>1264</v>
       </c>
       <c r="Y44" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>15</v>
@@ -7886,13 +7879,13 @@
         <v>663</v>
       </c>
       <c r="T45" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="U45" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="V45" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="W45" s="1" t="s">
         <v>768</v>
@@ -7901,12 +7894,12 @@
         <v>768</v>
       </c>
       <c r="Y45" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>65</v>
@@ -7945,10 +7938,10 @@
         <v>520</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="O46" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>613</v>
@@ -7972,18 +7965,18 @@
         <v>711</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="Y46" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>66</v>
@@ -8022,10 +8015,10 @@
         <v>527</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>614</v>
@@ -8055,12 +8048,12 @@
         <v>712</v>
       </c>
       <c r="Y47" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>67</v>
@@ -8093,13 +8086,13 @@
         <v>513</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="O48" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>616</v>
@@ -8123,18 +8116,18 @@
         <v>713</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="Y48" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>68</v>
@@ -8161,22 +8154,22 @@
         <v>498</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="K49" t="s">
         <v>514</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>528</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>617</v>
@@ -8200,21 +8193,21 @@
         <v>714</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="X49" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="Y49" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -8223,44 +8216,44 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="K50" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="2"/>
       <c r="N50" s="8" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="O50" s="8"/>
       <c r="P50" s="17" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="Q50" s="8" t="s">
+        <v>1245</v>
+      </c>
+      <c r="R50" s="2" t="s">
         <v>1248</v>
       </c>
-      <c r="R50" s="2" t="s">
-        <v>1251</v>
-      </c>
       <c r="S50" s="2" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="W50" s="2"/>
       <c r="Y50" s="2"/>
     </row>
     <row r="51" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>71</v>
@@ -8293,16 +8286,16 @@
         <v>515</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>529</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>618</v>
@@ -8326,15 +8319,15 @@
         <v>716</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>72</v>
@@ -8367,16 +8360,16 @@
         <v>516</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>530</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>619</v>
@@ -8400,15 +8393,15 @@
         <v>717</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="53" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>73</v>
@@ -8439,16 +8432,16 @@
         <v>517</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>531</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>620</v>
@@ -8472,18 +8465,18 @@
         <v>715</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="Y53" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B54" s="16" t="s">
         <v>76</v>
@@ -8516,16 +8509,16 @@
         <v>518</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>532</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>621</v>
@@ -8549,18 +8542,18 @@
         <v>718</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="Y54" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="55" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B55" s="16" t="s">
         <v>78</v>
@@ -8593,16 +8586,16 @@
         <v>519</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="M55" s="3" t="s">
         <v>533</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>622</v>
@@ -8626,18 +8619,18 @@
         <v>719</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="Y55" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B56" s="16" t="s">
         <v>82</v>
@@ -8670,16 +8663,16 @@
         <v>520</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>534</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>623</v>
@@ -8703,18 +8696,18 @@
         <v>721</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="X56" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="Y56" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="57" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>83</v>
@@ -8729,7 +8722,7 @@
         <v>80</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G57" t="s">
         <v>376</v>
@@ -8747,16 +8740,16 @@
         <v>521</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>535</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>624</v>
@@ -8780,21 +8773,21 @@
         <v>720</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="Y57" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="58" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B58" s="16" t="s">
         <v>1219</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>1220</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -8806,48 +8799,48 @@
       <c r="K58" s="2"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="X58" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="Y58" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>84</v>
@@ -8865,7 +8858,7 @@
         <v>81</v>
       </c>
       <c r="G59" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="P59" s="2" t="s">
         <v>625</v>
@@ -8874,7 +8867,7 @@
         <v>679</v>
       </c>
       <c r="R59" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="S59" t="s">
         <v>625</v>
@@ -8886,21 +8879,21 @@
         <v>625</v>
       </c>
       <c r="V59" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="W59" s="10" t="s">
         <v>893</v>
       </c>
-      <c r="W59" s="10" t="s">
+      <c r="X59" s="10" t="s">
         <v>894</v>
       </c>
-      <c r="X59" s="10" t="s">
-        <v>895</v>
-      </c>
       <c r="Y59" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="60" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>87</v>
@@ -8914,7 +8907,7 @@
     </row>
     <row r="61" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>88</v>
@@ -8928,7 +8921,7 @@
     </row>
     <row r="62" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>91</v>
@@ -8942,7 +8935,7 @@
     </row>
     <row r="63" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>92</v>
@@ -8956,7 +8949,7 @@
     </row>
     <row r="64" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>95</v>
@@ -8968,92 +8961,92 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="X64" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="Y64" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="65" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B65" s="16" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1215</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>1197</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>1216</v>
-      </c>
-      <c r="I65" t="s">
-        <v>1216</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>1198</v>
-      </c>
       <c r="K65" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="L65">
         <v>-999</v>
       </c>
       <c r="M65" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="N65" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="O65" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="P65" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Q65" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="R65" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="S65" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="T65" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="U65" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="V65" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="W65" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="X65" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="Y65" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="66" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>547</v>
@@ -9076,7 +9069,7 @@
     </row>
     <row r="67" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>548</v>
@@ -9099,7 +9092,7 @@
     </row>
     <row r="68" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>549</v>
@@ -9122,7 +9115,7 @@
     </row>
     <row r="69" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>550</v>
@@ -9145,7 +9138,7 @@
     </row>
     <row r="70" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>551</v>
@@ -9168,7 +9161,7 @@
     </row>
     <row r="71" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>552</v>
@@ -9191,7 +9184,7 @@
     </row>
     <row r="72" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>553</v>
@@ -9214,7 +9207,7 @@
     </row>
     <row r="73" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>554</v>
@@ -9237,7 +9230,7 @@
     </row>
     <row r="74" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>555</v>
@@ -9260,7 +9253,7 @@
     </row>
     <row r="75" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>123</v>
@@ -9283,7 +9276,7 @@
     </row>
     <row r="76" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>124</v>
@@ -9306,7 +9299,7 @@
     </row>
     <row r="77" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>125</v>
@@ -9329,7 +9322,7 @@
     </row>
     <row r="78" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>126</v>
@@ -9352,7 +9345,7 @@
     </row>
     <row r="79" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>127</v>
@@ -9375,7 +9368,7 @@
     </row>
     <row r="80" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>128</v>
@@ -9398,7 +9391,7 @@
     </row>
     <row r="81" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>129</v>
@@ -9421,7 +9414,7 @@
     </row>
     <row r="82" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>130</v>
@@ -9444,7 +9437,7 @@
     </row>
     <row r="83" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>131</v>
@@ -9467,7 +9460,7 @@
     </row>
     <row r="84" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>132</v>
@@ -9485,16 +9478,16 @@
         <v>133</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="M84" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="N84" t="s">
         <v>432</v>
       </c>
       <c r="O84" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="P84" t="s">
         <v>650</v>
@@ -9518,18 +9511,18 @@
         <v>756</v>
       </c>
       <c r="W84" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="X84" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="Y84" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="85" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>135</v>
@@ -9547,16 +9540,16 @@
         <v>134</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="M85" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="N85" t="s">
         <v>433</v>
       </c>
       <c r="O85" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="P85" t="s">
         <v>651</v>
@@ -9580,18 +9573,18 @@
         <v>757</v>
       </c>
       <c r="W85" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="X85" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Y85" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="86" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>136</v>
@@ -9612,13 +9605,13 @@
         <v>378</v>
       </c>
       <c r="M86" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="N86" t="s">
         <v>434</v>
       </c>
       <c r="O86" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="P86" t="s">
         <v>652</v>
@@ -9642,18 +9635,18 @@
         <v>758</v>
       </c>
       <c r="W86" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="X86" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="Y86" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="87" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>138</v>
@@ -9674,13 +9667,13 @@
         <v>379</v>
       </c>
       <c r="M87" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="N87" t="s">
         <v>435</v>
       </c>
       <c r="O87" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="P87" t="s">
         <v>653</v>
@@ -9704,18 +9697,18 @@
         <v>759</v>
       </c>
       <c r="W87" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="X87" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="Y87" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="88" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>140</v>
@@ -9739,12 +9732,12 @@
         <v>684</v>
       </c>
       <c r="W88" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="89" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>199</v>
@@ -9773,7 +9766,7 @@
     </row>
     <row r="90" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>198</v>
@@ -9802,7 +9795,7 @@
     </row>
     <row r="91" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>197</v>
@@ -9831,7 +9824,7 @@
     </row>
     <row r="92" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>196</v>
@@ -9860,7 +9853,7 @@
     </row>
     <row r="93" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>193</v>
@@ -9890,7 +9883,7 @@
         <v>440</v>
       </c>
       <c r="O93" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="R93" s="2" t="s">
         <v>693</v>
@@ -9898,7 +9891,7 @@
     </row>
     <row r="94" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>194</v>
@@ -9928,7 +9921,7 @@
         <v>441</v>
       </c>
       <c r="O94" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R94" s="2" t="s">
         <v>694</v>
@@ -9936,7 +9929,7 @@
     </row>
     <row r="95" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>195</v>
@@ -9966,7 +9959,7 @@
         <v>442</v>
       </c>
       <c r="O95" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="R95" s="2" t="s">
         <v>695</v>
@@ -9974,7 +9967,7 @@
     </row>
     <row r="96" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>146</v>
@@ -9998,12 +9991,12 @@
         <v>685</v>
       </c>
       <c r="W96" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>147</v>
@@ -10027,12 +10020,12 @@
         <v>686</v>
       </c>
       <c r="W97" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>148</v>
@@ -10056,12 +10049,12 @@
         <v>687</v>
       </c>
       <c r="W98" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>149</v>
@@ -10085,12 +10078,12 @@
         <v>688</v>
       </c>
       <c r="W99" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="100" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>558</v>
@@ -10129,30 +10122,30 @@
         <v>419</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="P100" s="2" t="s">
         <v>626</v>
       </c>
       <c r="Q100" s="2" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="V100" t="s">
         <v>722</v>
       </c>
       <c r="W100" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="X100" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="Y100" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B101" s="17" t="s">
         <v>152</v>
@@ -10176,18 +10169,18 @@
         <v>723</v>
       </c>
       <c r="W101" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="X101" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="Y101" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B102" s="17" t="s">
         <v>153</v>
@@ -10211,18 +10204,18 @@
         <v>724</v>
       </c>
       <c r="W102" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="X102" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="Y102" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>559</v>
@@ -10249,7 +10242,7 @@
         <v>420</v>
       </c>
       <c r="O103" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="P103" t="s">
         <v>627</v>
@@ -10273,18 +10266,18 @@
         <v>725</v>
       </c>
       <c r="W103" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="X103" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="Y103" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>560</v>
@@ -10311,7 +10304,7 @@
         <v>421</v>
       </c>
       <c r="O104" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="P104" t="s">
         <v>628</v>
@@ -10335,18 +10328,18 @@
         <v>726</v>
       </c>
       <c r="W104" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="X104" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="Y104" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>561</v>
@@ -10365,13 +10358,13 @@
         <v>387</v>
       </c>
       <c r="I105" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="J105" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K105" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="M105" t="s">
         <v>538</v>
@@ -10380,7 +10373,7 @@
         <v>422</v>
       </c>
       <c r="O105" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="P105" t="s">
         <v>629</v>
@@ -10404,18 +10397,18 @@
         <v>727</v>
       </c>
       <c r="W105" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="X105" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="Y105" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>562</v>
@@ -10457,18 +10450,18 @@
         <v>728</v>
       </c>
       <c r="W106" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="X106" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="Y106" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>563</v>
@@ -10488,10 +10481,10 @@
     </row>
     <row r="108" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -10503,18 +10496,18 @@
         <v>748</v>
       </c>
       <c r="W108" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="X108" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="Y108" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>564</v>
@@ -10541,7 +10534,7 @@
         <v>423</v>
       </c>
       <c r="O109" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="P109" t="s">
         <v>631</v>
@@ -10565,18 +10558,18 @@
         <v>729</v>
       </c>
       <c r="W109" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="X109" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="Y109" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>565</v>
@@ -10597,13 +10590,13 @@
         <v>394</v>
       </c>
       <c r="M110" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="N110" t="s">
         <v>424</v>
       </c>
       <c r="O110" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="P110" t="s">
         <v>632</v>
@@ -10627,18 +10620,18 @@
         <v>730</v>
       </c>
       <c r="W110" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="X110" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="Y110" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>566</v>
@@ -10657,13 +10650,13 @@
         <v>396</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J111" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="M111" t="s">
         <v>540</v>
@@ -10672,7 +10665,7 @@
         <v>425</v>
       </c>
       <c r="O111" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="P111" t="s">
         <v>633</v>
@@ -10696,18 +10689,18 @@
         <v>731</v>
       </c>
       <c r="W111" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="X111" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="Y111" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>567</v>
@@ -10749,18 +10742,18 @@
         <v>732</v>
       </c>
       <c r="W112" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="X112" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="Y112" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="113" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>568</v>
@@ -10780,10 +10773,10 @@
     </row>
     <row r="114" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -10795,18 +10788,18 @@
         <v>749</v>
       </c>
       <c r="W114" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="X114" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="Y114" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="115" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>569</v>
@@ -10833,7 +10826,7 @@
         <v>426</v>
       </c>
       <c r="O115" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="P115" t="s">
         <v>635</v>
@@ -10857,18 +10850,18 @@
         <v>733</v>
       </c>
       <c r="W115" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="X115" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="Y115" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="116" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>570</v>
@@ -10895,7 +10888,7 @@
         <v>427</v>
       </c>
       <c r="O116" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="P116" t="s">
         <v>636</v>
@@ -10919,18 +10912,18 @@
         <v>734</v>
       </c>
       <c r="W116" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="X116" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="Y116" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="117" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>571</v>
@@ -10949,13 +10942,13 @@
         <v>400</v>
       </c>
       <c r="I117" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J117" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="K117" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="M117" t="s">
         <v>541</v>
@@ -10964,7 +10957,7 @@
         <v>428</v>
       </c>
       <c r="O117" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="P117" t="s">
         <v>755</v>
@@ -10988,18 +10981,18 @@
         <v>754</v>
       </c>
       <c r="W117" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="X117" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="Y117" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="118" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>572</v>
@@ -11041,18 +11034,18 @@
         <v>735</v>
       </c>
       <c r="W118" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="X118" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="Y118" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="119" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>573</v>
@@ -11072,10 +11065,10 @@
     </row>
     <row r="120" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -11087,18 +11080,18 @@
         <v>750</v>
       </c>
       <c r="W120" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="X120" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="Y120" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="121" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>574</v>
@@ -11149,18 +11142,18 @@
         <v>736</v>
       </c>
       <c r="W121" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="X121" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="Y121" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="122" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>575</v>
@@ -11211,18 +11204,18 @@
         <v>737</v>
       </c>
       <c r="W122" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="X122" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="Y122" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="123" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>576</v>
@@ -11241,13 +11234,13 @@
         <v>404</v>
       </c>
       <c r="I123" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J123" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K123" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="M123" t="s">
         <v>546</v>
@@ -11280,18 +11273,18 @@
         <v>738</v>
       </c>
       <c r="W123" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="X123" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="Y123" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="124" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>577</v>
@@ -11333,18 +11326,18 @@
         <v>739</v>
       </c>
       <c r="W124" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="X124" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="Y124" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="125" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>578</v>
@@ -11364,10 +11357,10 @@
     </row>
     <row r="126" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -11379,18 +11372,18 @@
         <v>751</v>
       </c>
       <c r="W126" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="X126" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y126" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="127" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>579</v>
@@ -11427,18 +11420,18 @@
         <v>740</v>
       </c>
       <c r="W127" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="X127" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="Y127" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="128" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>580</v>
@@ -11475,18 +11468,18 @@
         <v>741</v>
       </c>
       <c r="W128" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="X128" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Y128" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="129" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>581</v>
@@ -11523,18 +11516,18 @@
         <v>742</v>
       </c>
       <c r="W129" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="X129" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="Y129" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="130" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>582</v>
@@ -11571,18 +11564,18 @@
         <v>743</v>
       </c>
       <c r="W130" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="X130" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Y130" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="131" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>583</v>
@@ -11597,10 +11590,10 @@
     </row>
     <row r="132" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -11612,18 +11605,18 @@
         <v>752</v>
       </c>
       <c r="W132" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="X132" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="Y132" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="133" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>584</v>
@@ -11657,18 +11650,18 @@
         <v>744</v>
       </c>
       <c r="W133" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="X133" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="Y133" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="134" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>585</v>
@@ -11702,18 +11695,18 @@
         <v>745</v>
       </c>
       <c r="W134" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="X134" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="Y134" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="135" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>586</v>
@@ -11747,18 +11740,18 @@
         <v>746</v>
       </c>
       <c r="W135" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="X135" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="Y135" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="136" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>587</v>
@@ -11792,18 +11785,18 @@
         <v>747</v>
       </c>
       <c r="W136" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="X136" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="Y136" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="137" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>588</v>
@@ -11818,10 +11811,10 @@
     </row>
     <row r="138" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -11830,110 +11823,110 @@
         <v>753</v>
       </c>
       <c r="W138" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="X138" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Y138" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B139">
-        <f>COUNTA(B2:B138)</f>
+        <f t="shared" ref="B139:Y139" si="0">COUNTA(B2:B138)</f>
         <v>137</v>
       </c>
       <c r="C139">
-        <f>COUNTA(C2:C138)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="D139">
-        <f>COUNTA(D2:D138)</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E139">
-        <f>COUNTA(E2:E138)</f>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="F139">
-        <f>COUNTA(F2:F138)</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="G139">
-        <f>COUNTA(G2:G138)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="H139">
-        <f>COUNTA(H2:H138)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="I139">
-        <f>COUNTA(I2:I138)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="J139">
-        <f>COUNTA(J2:J138)</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="K139">
-        <f>COUNTA(K2:K138)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="L139">
-        <f>COUNTA(L2:L138)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="M139">
-        <f>COUNTA(M2:M138)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="N139">
-        <f>COUNTA(N2:N138)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="O139">
-        <f>COUNTA(O2:O138)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="P139">
-        <f>COUNTA(P2:P138)</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="Q139">
-        <f>COUNTA(Q2:Q138)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="R139">
-        <f>COUNTA(R2:R138)</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="S139">
-        <f>COUNTA(S2:S138)</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="T139">
-        <f>COUNTA(T2:T138)</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="U139">
-        <f>COUNTA(U2:U138)</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="V139">
-        <f>COUNTA(V2:V138)</f>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="W139">
-        <f>COUNTA(W2:W138)</f>
-        <v>93</v>
+        <f t="shared" si="0"/>
+        <v>92</v>
       </c>
       <c r="X139">
-        <f>COUNTA(X2:X138)</f>
-        <v>95</v>
+        <f t="shared" si="0"/>
+        <v>94</v>
       </c>
       <c r="Y139">
-        <f>COUNTA(Y2:Y138)</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
     </row>

--- a/variables_list_satisfaction.xlsx
+++ b/variables_list_satisfaction.xlsx
@@ -4378,9 +4378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cwork</t>
-  </si>
-  <si>
     <t>ann_wage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4409,10 +4406,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Scwork</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">                     您平均每周大約花多少時間做家務工作？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4692,6 +4685,14 @@
   </si>
   <si>
     <t>a17a | a17d | a17b | a17e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwork(delete)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scwork(delete)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4745,7 +4746,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4788,12 +4789,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4807,7 +4802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4831,7 +4826,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
@@ -5119,10 +5113,10 @@
   <dimension ref="A1:Y139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="V14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomRight" activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5142,8 +5136,8 @@
     <col min="17" max="18" width="9.7109375" customWidth="1"/>
     <col min="19" max="19" width="12.140625" customWidth="1"/>
     <col min="20" max="20" width="17.7109375" customWidth="1"/>
-    <col min="21" max="21" width="19.5703125" customWidth="1"/>
-    <col min="22" max="22" width="19.28515625" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" customWidth="1"/>
     <col min="23" max="23" width="19.7109375" customWidth="1"/>
     <col min="24" max="24" width="18.5703125" customWidth="1"/>
   </cols>
@@ -6387,7 +6381,7 @@
     </row>
     <row r="21" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -6414,13 +6408,13 @@
         <v>1139</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="K21" t="s">
         <v>489</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>451</v>
@@ -6464,10 +6458,10 @@
     </row>
     <row r="22" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>1184</v>
+        <v>1263</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -6476,37 +6470,37 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="J22" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K22" s="19" t="s">
         <v>1233</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>1235</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="Q22" s="2" t="s">
         <v>1242</v>
       </c>
-      <c r="Q22" s="2" t="s">
-        <v>1244</v>
-      </c>
       <c r="R22" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="S22" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="T22" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="U22" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="V22" s="2"/>
       <c r="X22" s="8"/>
@@ -6533,11 +6527,11 @@
       <c r="G23" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="20" t="s">
         <v>460</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>490</v>
@@ -6546,7 +6540,7 @@
         <v>490</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>490</v>
@@ -6607,11 +6601,11 @@
       <c r="G24" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="20" t="s">
         <v>461</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>491</v>
@@ -6620,7 +6614,7 @@
         <v>491</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>491</v>
@@ -6685,7 +6679,7 @@
         <v>462</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>492</v>
@@ -6694,7 +6688,7 @@
         <v>492</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>492</v>
@@ -6762,7 +6756,7 @@
         <v>453</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="J26">
         <v>-999</v>
@@ -6771,7 +6765,7 @@
         <v>508</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>508</v>
@@ -6839,7 +6833,7 @@
         <v>463</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="J27">
         <v>-999</v>
@@ -6848,7 +6842,7 @@
         <v>509</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>509</v>
@@ -6925,7 +6919,7 @@
         <v>458</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>458</v>
@@ -7002,7 +6996,7 @@
         <v>510</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>510</v>
@@ -7046,10 +7040,10 @@
     </row>
     <row r="30" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -7061,46 +7055,46 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="N30" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="P30" s="3" t="s">
         <v>1220</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="Q30" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="U30" s="3" t="s">
         <v>1220</v>
       </c>
-      <c r="P30" s="3" t="s">
-        <v>1222</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>1220</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>1220</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>1220</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>1220</v>
-      </c>
-      <c r="U30" s="3" t="s">
-        <v>1222</v>
-      </c>
       <c r="V30" s="3" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
@@ -7163,8 +7157,8 @@
       <c r="A32" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>1191</v>
+      <c r="B32" s="16" t="s">
+        <v>1190</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>236</v>
@@ -7692,79 +7686,79 @@
     </row>
     <row r="43" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J43" t="s">
         <v>1193</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>1214</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J43" t="s">
-        <v>1195</v>
-      </c>
       <c r="K43" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="L43">
         <v>-999</v>
       </c>
       <c r="M43" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="N43" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="O43" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="P43" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="Q43" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="R43" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="S43" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="T43" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="U43" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="V43" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="W43" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="Y43" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
@@ -7802,7 +7796,7 @@
         <v>511</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>526</v>
@@ -7835,10 +7829,10 @@
         <v>699</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="Y44" s="2" t="s">
         <v>1033</v>
@@ -7879,13 +7873,13 @@
         <v>663</v>
       </c>
       <c r="T45" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="U45" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="V45" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="W45" s="1" t="s">
         <v>768</v>
@@ -8127,7 +8121,7 @@
     </row>
     <row r="49" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>68</v>
@@ -8154,13 +8148,13 @@
         <v>498</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="K49" t="s">
         <v>514</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>528</v>
@@ -8204,10 +8198,10 @@
     </row>
     <row r="50" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>1192</v>
+        <v>1264</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -8216,37 +8210,37 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="J50" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="K50" t="s">
         <v>1234</v>
-      </c>
-      <c r="K50" t="s">
-        <v>1236</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="2"/>
       <c r="N50" s="8" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="O50" s="8"/>
       <c r="P50" s="17" t="s">
+        <v>1241</v>
+      </c>
+      <c r="Q50" s="8" t="s">
         <v>1243</v>
       </c>
-      <c r="Q50" s="8" t="s">
-        <v>1245</v>
-      </c>
       <c r="R50" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="W50" s="2"/>
       <c r="Y50" s="2"/>
@@ -8273,7 +8267,7 @@
       <c r="G51" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="H51" s="21" t="s">
+      <c r="H51" s="20" t="s">
         <v>38</v>
       </c>
       <c r="I51" s="2" t="s">
@@ -8286,7 +8280,7 @@
         <v>515</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>529</v>
@@ -8347,7 +8341,7 @@
       <c r="G52" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="H52" s="21" t="s">
+      <c r="H52" s="20" t="s">
         <v>39</v>
       </c>
       <c r="I52" s="3" t="s">
@@ -8360,7 +8354,7 @@
         <v>516</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>530</v>
@@ -8784,10 +8778,10 @@
     </row>
     <row r="58" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -8799,43 +8793,43 @@
       <c r="K58" s="2"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="N58" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="V58" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="W58" s="2" t="s">
         <v>1221</v>
       </c>
-      <c r="O58" s="2" t="s">
+      <c r="X58" s="2" t="s">
         <v>1221</v>
       </c>
-      <c r="P58" s="2" t="s">
-        <v>1217</v>
-      </c>
-      <c r="Q58" s="2" t="s">
+      <c r="Y58" s="2" t="s">
         <v>1221</v>
-      </c>
-      <c r="R58" s="2" t="s">
-        <v>1221</v>
-      </c>
-      <c r="S58" s="2" t="s">
-        <v>1221</v>
-      </c>
-      <c r="T58" s="2" t="s">
-        <v>1221</v>
-      </c>
-      <c r="U58" s="2" t="s">
-        <v>1217</v>
-      </c>
-      <c r="V58" s="2" t="s">
-        <v>1221</v>
-      </c>
-      <c r="W58" s="2" t="s">
-        <v>1223</v>
-      </c>
-      <c r="X58" s="2" t="s">
-        <v>1223</v>
-      </c>
-      <c r="Y58" s="2" t="s">
-        <v>1223</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
@@ -8969,79 +8963,79 @@
     </row>
     <row r="65" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="I65" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="L65">
         <v>-999</v>
       </c>
       <c r="M65" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="N65" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="O65" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="P65" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="Q65" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="R65" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="S65" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="T65" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="U65" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="V65" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="W65" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="X65" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="Y65" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="66" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
@@ -10128,7 +10122,7 @@
         <v>626</v>
       </c>
       <c r="Q100" s="2" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="V100" t="s">
         <v>722</v>
@@ -10481,10 +10475,10 @@
     </row>
     <row r="108" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -10773,10 +10767,10 @@
     </row>
     <row r="114" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -11065,10 +11059,10 @@
     </row>
     <row r="120" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -11357,10 +11351,10 @@
     </row>
     <row r="126" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -11590,10 +11584,10 @@
     </row>
     <row r="132" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -11811,10 +11805,10 @@
     </row>
     <row r="138" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
